--- a/test_data/converted_xlsx/Template/ViR-template.xlsx
+++ b/test_data/converted_xlsx/Template/ViR-template.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tjrbe\Documents\GitHub\ViR_Tool\test_data\converted_xlsx\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EAC64D5-753B-44A9-804E-505839361C64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDEC0E37-8C04-4455-ADA6-BFA86CAB1DA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="14400" windowHeight="8260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Grow-In (As -Surveyed MVCD)" sheetId="1" r:id="rId1"/>
+    <sheet name="Grow-In (As-Surveyed MVCD)" sheetId="1" r:id="rId1"/>
     <sheet name="Blow-Out (NESC Blowout WSZ)" sheetId="7" r:id="rId2"/>
     <sheet name="Grow-In(CircuitThermal STE WSZ)" sheetId="8" r:id="rId3"/>
     <sheet name="Fall-In(CircuitThermal STE WSZ)" sheetId="9" r:id="rId4"/>
@@ -21,7 +21,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Blow-Out (NESC Blowout WSZ)'!$A$9:$H$9</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Fall-In(CircuitThermal STE WSZ)'!$A$9:$H$9</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Grow-In (As -Surveyed MVCD)'!$A$9:$H$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Grow-In (As-Surveyed MVCD)'!$A$9:$H$9</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Grow-In(CircuitThermal STE WSZ)'!$A$9:$H$9</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="14">
-        <f>'Grow-In (As -Surveyed MVCD)'!B3</f>
+        <f>'Grow-In (As-Surveyed MVCD)'!B3</f>
         <v>0</v>
       </c>
       <c r="C3" s="3"/>
@@ -1069,7 +1069,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="14">
-        <f>'Grow-In (As -Surveyed MVCD)'!B4</f>
+        <f>'Grow-In (As-Surveyed MVCD)'!B4</f>
         <v>0</v>
       </c>
       <c r="C4" s="3"/>
@@ -1321,7 +1321,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="14">
-        <f>'Grow-In (As -Surveyed MVCD)'!B3</f>
+        <f>'Grow-In (As-Surveyed MVCD)'!B3</f>
         <v>0</v>
       </c>
       <c r="C3" s="3"/>
@@ -1336,7 +1336,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="14">
-        <f>'Grow-In (As -Surveyed MVCD)'!B4</f>
+        <f>'Grow-In (As-Surveyed MVCD)'!B4</f>
         <v>0</v>
       </c>
       <c r="C4" s="3"/>
@@ -1481,7 +1481,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="14">
-        <f>'Grow-In (As -Surveyed MVCD)'!B3</f>
+        <f>'Grow-In (As-Surveyed MVCD)'!B3</f>
         <v>0</v>
       </c>
       <c r="C3" s="3"/>
@@ -1496,7 +1496,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="14">
-        <f>'Grow-In (As -Surveyed MVCD)'!B4</f>
+        <f>'Grow-In (As-Surveyed MVCD)'!B4</f>
         <v>0</v>
       </c>
       <c r="C4" s="3"/>
